--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061B750-F040-B641-B1D4-80BC555CC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D61F2B-B229-3641-88F1-9C4DB6BE7894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{24EAEB12-C4B4-C449-B5B1-926696252D71}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Title</t>
   </si>
@@ -128,6 +128,69 @@
   </si>
   <si>
     <t>Liverpool-Physics</t>
+  </si>
+  <si>
+    <t>Carsten</t>
+  </si>
+  <si>
+    <t>Welsch</t>
+  </si>
+  <si>
+    <t>C.P.</t>
+  </si>
+  <si>
+    <t>c.p.welsch@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>Carsten P. Welsch</t>
+  </si>
+  <si>
+    <t>CI-Liverpool</t>
+  </si>
+  <si>
+    <t>CI-DL</t>
+  </si>
+  <si>
+    <t>Cockcroft Institute, Daresbury Laboratory, Sci-Tech Daresbury, Keckwick Ln, Daresbury, Warrington UK</t>
+  </si>
+  <si>
+    <t>0000-0001-7085-0973</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Milaan</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>Milaan.Patel@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>M. Patel</t>
+  </si>
+  <si>
+    <t>Narender</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>N.</t>
+  </si>
+  <si>
+    <t>Narender.Kumar@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>N. Kumar</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -270,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +513,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -566,6 +635,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -611,8 +717,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -672,9 +784,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}" name="Table1" displayName="Table1" ref="A1:O4" totalsRowShown="0">
-  <autoFilter ref="A1:O4" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
+  <autoFilter ref="A1:P4" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{41B4F3CF-168E-7045-856F-37C7C58FD5F4}" name="Title"/>
     <tableColumn id="2" xr3:uid="{1C2D6CE4-9E1A-6E4B-99AE-9AEF29A7C698}" name="Name"/>
     <tableColumn id="3" xr3:uid="{4B80C5EE-2BA8-8241-8F61-DB240DC49D58}" name="Surname"/>
@@ -690,6 +802,7 @@
     <tableColumn id="13" xr3:uid="{8162534A-D29A-2248-88EA-C31E54968A26}" name="Affiliation address3"/>
     <tableColumn id="14" xr3:uid="{9D0A4693-60ED-AC4F-9FC8-887F2630CA66}" name="ORCID "/>
     <tableColumn id="15" xr3:uid="{727AB4EF-6311-264B-9A72-B1AF357E5939}" name="Role"/>
+    <tableColumn id="16" xr3:uid="{C9B33923-FBA3-0A4D-AA12-7048DC61ECDE}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1012,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65C4FD-74A5-7341-925E-315868AA2B54}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,14 +1143,14 @@
     <col min="8" max="8" width="109.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1196,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1173,6 +1289,128 @@
       <c r="I4">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D61F2B-B229-3641-88F1-9C4DB6BE7894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8CEB8-E64A-024F-88B8-E8A03FA1F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{24EAEB12-C4B4-C449-B5B1-926696252D71}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>CI-DL</t>
   </si>
   <si>
-    <t>Cockcroft Institute, Daresbury Laboratory, Sci-Tech Daresbury, Keckwick Ln, Daresbury, Warrington UK</t>
-  </si>
-  <si>
     <t>0000-0001-7085-0973</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65C4FD-74A5-7341-925E-315868AA2B54}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1318,38 +1318,38 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
+      <c r="K5" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>41</v>
@@ -1364,7 +1364,7 @@
         <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1374,22 +1374,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>41</v>
@@ -1400,11 +1400,11 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
+      <c r="K7" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>

--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8CEB8-E64A-024F-88B8-E8A03FA1F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BAB22-4A40-E94B-9814-35375BF4F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{24EAEB12-C4B4-C449-B5B1-926696252D71}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{744F52D6-2606-1749-918E-258FAC47E654}"/>
   </bookViews>
   <sheets>
     <sheet name="Liverpool" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prof. </t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>H. Poptani</t>
   </si>
   <si>
-    <t>Institute of Systems, Molecular and Integrative Biology, University of Liverpool, Biosciences Building, Crown Street, Liverpool L69 7BE</t>
+    <t>Liverpool-ISMIB</t>
   </si>
   <si>
     <t>Timothy</t>
@@ -103,33 +106,33 @@
     <t>T. Greenshaw</t>
   </si>
   <si>
+    <t>Liverpool-Physics</t>
+  </si>
+  <si>
+    <t>Department of Physics, University of Liverpool, Liverpool, L69 7ZE, UK</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Weightman</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>peterw@LIVERPOOL.AC.UK</t>
+  </si>
+  <si>
+    <t>P. Weightman</t>
+  </si>
+  <si>
     <t>Department of Physics, University of Liverpool, Liverpool L69 7ZE, UK</t>
   </si>
   <si>
-    <t>IB</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Weightman</t>
-  </si>
-  <si>
-    <t>P.</t>
-  </si>
-  <si>
-    <t>peterw@LIVERPOOL.AC.UK</t>
-  </si>
-  <si>
-    <t>P. Weightman</t>
-  </si>
-  <si>
-    <t>Liverpool-ISMIB</t>
-  </si>
-  <si>
-    <t>Liverpool-Physics</t>
-  </si>
-  <si>
     <t>Carsten</t>
   </si>
   <si>
@@ -145,12 +148,12 @@
     <t>Carsten P. Welsch</t>
   </si>
   <si>
-    <t>CI-Liverpool</t>
-  </si>
-  <si>
     <t>CI-DL</t>
   </si>
   <si>
+    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
+  </si>
+  <si>
     <t>0000-0001-7085-0973</t>
   </si>
   <si>
@@ -187,10 +190,7 @@
     <t>N. Kumar</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
+    <t>Institute of Systems, Molecular and Integrative Biology, University of Liverpool, Biosciences Building, Crown Street, Liverpool, L69 7BE, UK</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,14 +513,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -635,43 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -717,14 +674,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,25 +735,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
-  <autoFilter ref="A1:P4" xr:uid="{275D7A69-25A0-AA48-9709-8C32E0F71C38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}" name="Table1" displayName="Table1" ref="A1:P7" totalsRowShown="0">
+  <autoFilter ref="A1:P7" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{41B4F3CF-168E-7045-856F-37C7C58FD5F4}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{1C2D6CE4-9E1A-6E4B-99AE-9AEF29A7C698}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{4B80C5EE-2BA8-8241-8F61-DB240DC49D58}" name="Surname"/>
-    <tableColumn id="4" xr3:uid="{A28DC605-7F6D-3740-B846-5F16A7BC7291}" name="Initials"/>
-    <tableColumn id="5" xr3:uid="{FC47BBA2-BA34-7B4A-80F7-9860E0816EBE}" name="email address"/>
-    <tableColumn id="6" xr3:uid="{DBDE4F55-55A6-FA4C-8318-FE356C25C987}" name="Name on Publications "/>
-    <tableColumn id="7" xr3:uid="{495B80D6-7D6D-6542-BC93-F28C7BCA1A96}" name="Organisation"/>
-    <tableColumn id="8" xr3:uid="{EC4170D2-2B13-7644-AE23-72D27766FDC3}" name="Address"/>
-    <tableColumn id="9" xr3:uid="{377DC679-28FC-3849-AB76-15D74AE4E20A}" name="Number of affiliations"/>
-    <tableColumn id="10" xr3:uid="{F1E9E148-95CE-A147-8474-DC448493B3FB}" name="Affiliation code"/>
-    <tableColumn id="11" xr3:uid="{171B15E8-D135-6E46-850E-DB2FD9112A95}" name="Affiliation address"/>
-    <tableColumn id="12" xr3:uid="{0D63E6D8-3907-A84A-BD10-3DF521BD9C02}" name="Affiliation code2"/>
-    <tableColumn id="13" xr3:uid="{8162534A-D29A-2248-88EA-C31E54968A26}" name="Affiliation address3"/>
-    <tableColumn id="14" xr3:uid="{9D0A4693-60ED-AC4F-9FC8-887F2630CA66}" name="ORCID "/>
-    <tableColumn id="15" xr3:uid="{727AB4EF-6311-264B-9A72-B1AF357E5939}" name="Role"/>
-    <tableColumn id="16" xr3:uid="{C9B33923-FBA3-0A4D-AA12-7048DC61ECDE}" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{53C90DC2-5C45-244D-B2CD-E6962A4714AE}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{2AFE3A23-E8DE-B34A-B4A8-7115B222A51F}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{11F75862-1932-344A-BBB7-E29242B7554B}" name="Surname"/>
+    <tableColumn id="4" xr3:uid="{A0C32FB8-B8B6-4440-B8B1-04EACDEADBD1}" name="Initials"/>
+    <tableColumn id="5" xr3:uid="{36C93B12-B252-B945-A3B6-549D531C3CDF}" name="email address"/>
+    <tableColumn id="6" xr3:uid="{D605C8DF-0B2D-C445-9594-7E32F15995BC}" name="Name on Publications "/>
+    <tableColumn id="7" xr3:uid="{CEA13747-5AE0-9E4B-8E9C-6A0A5D86084E}" name="Organisation"/>
+    <tableColumn id="8" xr3:uid="{349D72E3-847A-574D-8482-ECA30DEB9C92}" name="Address"/>
+    <tableColumn id="9" xr3:uid="{5879EF42-1984-474E-BF03-ABD0540DAE46}" name="Number of affiliations"/>
+    <tableColumn id="10" xr3:uid="{CAE53009-2165-8343-B805-5A9D21521D32}" name="Affiliation code"/>
+    <tableColumn id="11" xr3:uid="{68111391-8116-7241-AA0B-0B50777A1C5E}" name="Affiliation address"/>
+    <tableColumn id="12" xr3:uid="{6F93E330-0129-3949-B879-83C92591827C}" name="Affiliation code2"/>
+    <tableColumn id="13" xr3:uid="{589235A5-302F-A44A-9210-6128B8700396}" name="Affiliation address3"/>
+    <tableColumn id="14" xr3:uid="{FC8E651C-1E6A-114B-9EB2-2F45AAAAA94D}" name="ORCID "/>
+    <tableColumn id="15" xr3:uid="{CE8DE8E9-8DF5-AB42-89A9-A91FA2911A41}" name="Role"/>
+    <tableColumn id="16" xr3:uid="{0869B869-C279-5A4B-BC98-A12693C498DB}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,30 +1075,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65C4FD-74A5-7341-925E-315868AA2B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FC97F-12F8-3941-9BA5-84BBB981624C}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="109.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1197,33 +1149,33 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1231,186 +1183,172 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BAB22-4A40-E94B-9814-35375BF4F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0536F6-8D5D-4C4B-AC28-0D7E3E49D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{744F52D6-2606-1749-918E-258FAC47E654}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -73,24 +73,6 @@
     <t xml:space="preserve">Prof. </t>
   </si>
   <si>
-    <t>Harish</t>
-  </si>
-  <si>
-    <t>Poptani</t>
-  </si>
-  <si>
-    <t>H.</t>
-  </si>
-  <si>
-    <t>harish.poptani@LIVERPOOL.AC.UK</t>
-  </si>
-  <si>
-    <t>H. Poptani</t>
-  </si>
-  <si>
-    <t>Liverpool-ISMIB</t>
-  </si>
-  <si>
     <t>Timothy</t>
   </si>
   <si>
@@ -188,9 +170,6 @@
   </si>
   <si>
     <t>N. Kumar</t>
-  </si>
-  <si>
-    <t>Institute of Systems, Molecular and Integrative Biology, University of Liverpool, Biosciences Building, Crown Street, Liverpool, L69 7BE, UK</t>
   </si>
 </sst>
 </file>
@@ -735,8 +714,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}" name="Table1" displayName="Table1" ref="A1:P7" totalsRowShown="0">
-  <autoFilter ref="A1:P7" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}" name="Table1" displayName="Table1" ref="A1:P6" totalsRowShown="0">
+  <autoFilter ref="A1:P6" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{53C90DC2-5C45-244D-B2CD-E6962A4714AE}" name="Title"/>
     <tableColumn id="2" xr3:uid="{2AFE3A23-E8DE-B34A-B4A8-7115B222A51F}" name="Name"/>
@@ -1076,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FC97F-12F8-3941-9BA5-84BBB981624C}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,10 +1154,13 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1186,31 +1168,28 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1233,121 +1212,92 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
